--- a/medicine/Enfance/La_Dernière_Bataille/La_Dernière_Bataille.xlsx
+++ b/medicine/Enfance/La_Dernière_Bataille/La_Dernière_Bataille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Derni%C3%A8re_Bataille</t>
+          <t>La_Dernière_Bataille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Dernière Bataille (en anglais : The Last Battle) est un roman fantastique pour la jeunesse écrit et publié par Clive Staples Lewis en 1956. C'est le septième et dernier tome de la série Le Monde de Narnia. La prestigieuse médaille Carnegie — la plus haute distinction de la littérature pour la jeunesse au Royaume-Uni — lui fut décernée en 1956.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Derni%C3%A8re_Bataille</t>
+          <t>La_Dernière_Bataille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le singe Shift a déguisé en lion le naïf âne Puzzle. En lui faisant prononcer des oracles sous une tente, il cherche à le faire passer pour Aslan pour forcer les Narniens à lui obéir et à lui assurer son confort.
 Heureux de la rumeur du retour d'Aslan, Tirian apprend des nouvelles inquiétantes et fait se tenir prête l'armée. Il découvre horrifié que les arbres des nymphes sont arrachés par des Calormènes qui utilisent et fouettent des chevaux parlants. Furieux, il libère un cheval qui affirme agir sur ordre d'Aslan.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Derni%C3%A8re_Bataille</t>
+          <t>La_Dernière_Bataille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Liste des chapitres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lac du Chaudron
